--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -64,17 +64,32 @@
   <si>
     <t>Team meeting and then starting exploring more about the spring &amp; microservices.</t>
   </si>
+  <si>
+    <t>Java Training/Hellokoding</t>
+  </si>
+  <si>
+    <t>Attended Java training &amp; gave hackerrank test &amp; did practice on hellokoding.</t>
+  </si>
+  <si>
+    <t>12 hrs</t>
+  </si>
+  <si>
+    <t>Java Training/Tasks</t>
+  </si>
+  <si>
+    <t>Attended Java training &amp; working on given tasks.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -101,6 +116,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,32 +138,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,6 +161,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -167,13 +181,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,6 +217,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -217,7 +232,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,14 +240,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,13 +281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,13 +341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,25 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,24 +449,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -440,13 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,26 +643,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +658,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,10 +733,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,139 +759,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -918,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -928,7 +943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1251,7 +1266,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1364,18 +1379,32 @@
       <c r="C8" s="20">
         <v>44508</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
+      <c r="D8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="19">
         <v>6</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
+      <c r="C9" s="20">
+        <v>44509</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="19">

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -79,17 +79,32 @@
   <si>
     <t>Attended Java training &amp; working on given tasks.</t>
   </si>
+  <si>
+    <t>Watched record/Practice</t>
+  </si>
+  <si>
+    <t>Watched recording videos and working on the given tasks.</t>
+  </si>
+  <si>
+    <t>9 hrs</t>
+  </si>
+  <si>
+    <t>Watched recording videos and working on the given tasks and practice some elements of spring.</t>
+  </si>
+  <si>
+    <t>Attended Java training &amp; working on given tasks. like annotataion to xml.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -124,8 +139,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,11 +161,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -173,14 +189,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -210,6 +218,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,19 +296,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,18 +332,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,25 +344,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,31 +392,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,13 +446,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,25 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,148 +762,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -933,7 +948,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -943,7 +958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1266,7 +1281,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1410,28 +1425,52 @@
       <c r="B10" s="19">
         <v>7</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="20">
+        <v>44510</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="19">
         <v>8</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="C11" s="20">
+        <v>44511</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="19">
         <v>9</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
+      <c r="C12" s="20">
+        <v>44512</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="19">

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -94,17 +94,29 @@
   <si>
     <t>Attended Java training &amp; working on given tasks. like annotataion to xml.</t>
   </si>
+  <si>
+    <t>Watched session recording videos and working on the given tasks.</t>
+  </si>
+  <si>
+    <t>Training/Tasks/Practice</t>
+  </si>
+  <si>
+    <t>Watched session record video and working on the given task as well practice the spring contents.</t>
+  </si>
+  <si>
+    <t>Attended  the java training and working on spring mvc so on.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -131,9 +143,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,7 +160,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,15 +173,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -177,6 +189,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -185,10 +212,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,14 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -225,14 +245,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,13 +308,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,19 +326,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +362,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,37 +386,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,7 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,19 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,7 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,13 +458,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,6 +670,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,15 +737,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -721,21 +748,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,148 +774,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -948,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -958,7 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1281,7 +1293,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1476,34 +1488,60 @@
       <c r="B13" s="19">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
+      <c r="C13" s="20">
+        <v>44515</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="19">
         <v>11</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="20">
+        <v>44516</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="19">
         <v>12</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
+      <c r="C15" s="20">
+        <v>44517</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="19">
         <v>13</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20">
+        <v>44518</v>
+      </c>
       <c r="D16" s="21"/>
       <c r="E16" s="22"/>
       <c r="F16" s="23"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -106,15 +106,24 @@
   <si>
     <t>Attended  the java training and working on spring mvc so on.</t>
   </si>
+  <si>
+    <t>Project.D/Java/Practice</t>
+  </si>
+  <si>
+    <t>Disscussed about the given project, attended the java training &amp; practice on the given tasks.</t>
+  </si>
+  <si>
+    <t>Discussed about the project with the team,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
@@ -143,16 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,33 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +203,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,7 +230,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -245,6 +246,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,19 +317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +335,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,13 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +389,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,43 +419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,25 +461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,7 +497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,30 +679,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -737,6 +722,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,6 +742,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -774,82 +783,82 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -864,58 +873,58 @@
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1293,7 +1302,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1542,24 +1551,38 @@
       <c r="C16" s="20">
         <v>44518</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
+      <c r="D16" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="19">
         <v>14</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="20">
+        <v>44519</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="19">
         <v>15</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="20">
+        <v>44522</v>
+      </c>
       <c r="D18" s="21"/>
       <c r="E18" s="22"/>
       <c r="F18" s="23"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Discussed about the project with the team,</t>
+  </si>
+  <si>
+    <t>Revised/Project Disscuss</t>
+  </si>
+  <si>
+    <t>Discussed about the SchwallMangement project with team and start working on it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java Train./Project/Tasks </t>
+  </si>
+  <si>
+    <t>Attended java training &amp; working on the given tasks and working on given project.</t>
   </si>
 </sst>
 </file>
@@ -121,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -166,27 +178,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,10 +195,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +249,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -246,14 +273,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,13 +307,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -317,19 +329,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,19 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,37 +401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,25 +497,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,6 +691,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,21 +773,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -783,148 +795,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1302,7 +1314,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1574,7 +1586,9 @@
       <c r="E17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="19">
@@ -1583,25 +1597,43 @@
       <c r="C18" s="20">
         <v>44522</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="23"/>
+      <c r="D18" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="19">
         <v>16</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
+      <c r="C19" s="20">
+        <v>44523</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="19">
         <v>17</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="20">
+        <v>44524</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="23"/>
     </row>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Attended java training &amp; working on the given tasks and working on given project.</t>
+  </si>
+  <si>
+    <t>Attended java training, did some project work &amp; some java interview revision.</t>
   </si>
 </sst>
 </file>
@@ -133,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
@@ -165,6 +168,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -172,7 +198,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,39 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,14 +248,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,6 +269,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,16 +304,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,13 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,13 +350,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,19 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +434,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,12 +459,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +488,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,13 +512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,17 +698,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,15 +729,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,6 +772,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -781,21 +795,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -804,49 +813,43 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -855,88 +858,88 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1314,7 +1317,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1634,8 +1637,12 @@
       <c r="D20" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="23"/>
+      <c r="E20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="19">

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Attended java training, did some project work &amp; some java interview revision.</t>
+  </si>
+  <si>
+    <t>Inter./Java train./Revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attended interview readiness, Java training, working on given task &amp; revision of some inter. quest. </t>
+  </si>
+  <si>
+    <t>Java train./Project dis./Rev.</t>
+  </si>
+  <si>
+    <t>Attended meeting and then working on schwall management project with team.</t>
   </si>
 </sst>
 </file>
@@ -174,16 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,38 +195,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,7 +210,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,6 +229,29 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,13 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -299,6 +296,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,7 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,37 +368,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,13 +398,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,7 +446,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,13 +476,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,30 +524,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -698,26 +710,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -729,6 +721,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,10 +796,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -816,127 +828,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1316,15 +1328,15 @@
   <sheetPr/>
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="12.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="21.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="81" customWidth="1"/>
+    <col min="4" max="4" width="23.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="81.7272727272727" customWidth="1"/>
     <col min="6" max="6" width="16.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1648,25 +1660,43 @@
       <c r="B21" s="19">
         <v>18</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="23"/>
+      <c r="C21" s="20">
+        <v>44525</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="19">
         <v>19</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="23"/>
+      <c r="C22" s="20">
+        <v>44526</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="19">
         <v>20</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="20">
+        <v>44529</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="8"/>
       <c r="F23" s="23"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>Attended meeting and then working on schwall management project with team.</t>
+  </si>
+  <si>
+    <t>Java train./Interview prep.</t>
+  </si>
+  <si>
+    <t>Attende java meeting &amp; done with some given tasks &amp; then preparing for some interview question</t>
+  </si>
+  <si>
+    <t>13hrs</t>
   </si>
 </sst>
 </file>
@@ -148,11 +157,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -180,14 +189,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +233,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -216,9 +249,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,34 +272,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -272,7 +289,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,23 +325,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -344,13 +353,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,25 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,97 +407,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,19 +449,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +715,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,6 +753,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -759,21 +794,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -796,162 +816,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,7 +1005,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1006,7 +1015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,7 +1338,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1697,13 +1706,23 @@
       <c r="C23" s="20">
         <v>44529</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="23"/>
+      <c r="D23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
+      <c r="B24" s="19">
+        <v>21</v>
+      </c>
+      <c r="C24" s="20">
+        <v>44530</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="23"/>

--- a/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
+++ b/Sunny/Timesheet/Schwall_TraineeName_Timesheet_Nov_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>13hrs</t>
+  </si>
+  <si>
+    <t>Mock Inter./Interview pre.</t>
+  </si>
+  <si>
+    <t>Attended mock interview with dhivya and going through some given interview questions.</t>
   </si>
 </sst>
 </file>
@@ -157,11 +163,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="dd/mmm/yy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mmm/yy"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -189,14 +195,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,8 +223,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,32 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -281,7 +279,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -289,14 +287,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,8 +316,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +326,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,25 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,13 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,19 +401,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,61 +491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,13 +509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,17 +725,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,17 +767,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -784,11 +782,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,157 +814,159 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,7 +1011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1015,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1338,7 +1344,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -1723,9 +1729,15 @@
       <c r="C24" s="20">
         <v>44530</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="19"/>
